--- a/merge/merged_data.xlsx
+++ b/merge/merged_data.xlsx
@@ -1,25 +1,159 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lintzujeng/Documents/GitHub/R_Project/merge/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A07611-DE7C-9D44-AA28-5FA9DD482FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1520" yWindow="700" windowWidth="23760" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>市場</t>
+  </si>
+  <si>
+    <t>交易量(公斤)</t>
+  </si>
+  <si>
+    <t>交易金額(元)</t>
+  </si>
+  <si>
+    <t>平均價(元/公斤)</t>
+  </si>
+  <si>
+    <t>最高價(元/公斤)</t>
+  </si>
+  <si>
+    <t>最低價(元/公斤)</t>
+  </si>
+  <si>
+    <t>氣溫</t>
+  </si>
+  <si>
+    <t>107年01月</t>
+  </si>
+  <si>
+    <t>高雄市場</t>
+  </si>
+  <si>
+    <t>107年02月</t>
+  </si>
+  <si>
+    <t>107年03月</t>
+  </si>
+  <si>
+    <t>107年04月</t>
+  </si>
+  <si>
+    <t>107年05月</t>
+  </si>
+  <si>
+    <t>107年06月</t>
+  </si>
+  <si>
+    <t>107年10月</t>
+  </si>
+  <si>
+    <t>107年11月</t>
+  </si>
+  <si>
+    <t>107年12月</t>
+  </si>
+  <si>
+    <t>108年01月</t>
+  </si>
+  <si>
+    <t>108年02月</t>
+  </si>
+  <si>
+    <t>108年03月</t>
+  </si>
+  <si>
+    <t>108年04月</t>
+  </si>
+  <si>
+    <t>108年11月</t>
+  </si>
+  <si>
+    <t>108年12月</t>
+  </si>
+  <si>
+    <t>109年01月</t>
+  </si>
+  <si>
+    <t>109年02月</t>
+  </si>
+  <si>
+    <t>109年03月</t>
+  </si>
+  <si>
+    <t>109年10月</t>
+  </si>
+  <si>
+    <t>109年11月</t>
+  </si>
+  <si>
+    <t>109年12月</t>
+  </si>
+  <si>
+    <t>110年01月</t>
+  </si>
+  <si>
+    <t>110年02月</t>
+  </si>
+  <si>
+    <t>110年10月</t>
+  </si>
+  <si>
+    <t>110年11月</t>
+  </si>
+  <si>
+    <t>110年12月</t>
+  </si>
+  <si>
+    <t>111年01月</t>
+  </si>
+  <si>
+    <t>111年02月</t>
+  </si>
+  <si>
+    <t>111年03月</t>
+  </si>
+  <si>
+    <t>111年04月</t>
+  </si>
+  <si>
+    <t>111年10月</t>
+  </si>
+  <si>
+    <t>111年11月</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -27,8 +161,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -59,15 +200,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +290,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +342,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,65 +535,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>市場</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>交易量(公斤)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>交易金額(元)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>平均價(元/公斤)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>最高價(元/公斤)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>最低價(元/公斤)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>氣溫</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>107年01月</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="1" spans="1:8" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2">
         <v>23938</v>
@@ -417,7 +591,7 @@
         <v>405000.2</v>
       </c>
       <c r="E2">
-        <v>16.9187150137856</v>
+        <v>16.918715013785601</v>
       </c>
       <c r="F2">
         <v>166.7</v>
@@ -426,19 +600,15 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>107年02月</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3">
         <v>20021</v>
@@ -456,19 +626,15 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>19.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>107年03月</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3928</v>
@@ -477,7 +643,7 @@
         <v>56803.1</v>
       </c>
       <c r="E4">
-        <v>14.4610743380855</v>
+        <v>14.461074338085499</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -489,16 +655,12 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>107年04月</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5">
         <v>4381</v>
@@ -507,7 +669,7 @@
         <v>64628.1</v>
       </c>
       <c r="E5">
-        <v>14.7519059575439</v>
+        <v>14.751905957543901</v>
       </c>
       <c r="F5">
         <v>32</v>
@@ -519,25 +681,21 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>107年05月</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2350</v>
       </c>
       <c r="D6">
-        <v>26395.2</v>
+        <v>26395.200000000001</v>
       </c>
       <c r="E6">
-        <v>11.232</v>
+        <v>11.231999999999999</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -549,16 +707,12 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>107年06月</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
       </c>
       <c r="C7">
         <v>320</v>
@@ -579,16 +733,12 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>107年10月</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
       <c r="C8">
         <v>174</v>
@@ -609,16 +759,12 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>107年11月</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
       <c r="C9">
         <v>2236</v>
@@ -627,28 +773,24 @@
         <v>38071.1</v>
       </c>
       <c r="E9">
-        <v>17.0264311270125</v>
+        <v>17.026431127012501</v>
       </c>
       <c r="F9">
         <v>28.7</v>
       </c>
       <c r="G9">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H9">
         <v>24.5</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>107年12月</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
       <c r="C10">
         <v>9511</v>
@@ -657,10 +799,10 @@
         <v>183999.3</v>
       </c>
       <c r="E10">
-        <v>19.3459467984439</v>
+        <v>19.345946798443901</v>
       </c>
       <c r="F10">
-        <v>133.3</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="G10">
         <v>5.4</v>
@@ -669,16 +811,12 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>108年01月</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
       </c>
       <c r="C11">
         <v>29855</v>
@@ -687,7 +825,7 @@
         <v>557192.5</v>
       </c>
       <c r="E11">
-        <v>18.6632892312845</v>
+        <v>18.663289231284502</v>
       </c>
       <c r="F11">
         <v>160</v>
@@ -699,25 +837,21 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>108年02月</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
       </c>
       <c r="C12">
         <v>10550</v>
       </c>
       <c r="D12">
-        <v>160629.7</v>
+        <v>160629.70000000001</v>
       </c>
       <c r="E12">
-        <v>15.2255639810427</v>
+        <v>15.225563981042701</v>
       </c>
       <c r="F12">
         <v>41.7</v>
@@ -729,16 +863,12 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>108年03月</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
       </c>
       <c r="C13">
         <v>6781</v>
@@ -747,10 +877,10 @@
         <v>114507.9</v>
       </c>
       <c r="E13">
-        <v>16.8865801504203</v>
+        <v>16.886580150420301</v>
       </c>
       <c r="F13">
-        <v>37.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="G13">
         <v>5.8</v>
@@ -759,16 +889,12 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>108年04月</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
       </c>
       <c r="C14">
         <v>403</v>
@@ -777,7 +903,7 @@
         <v>7683</v>
       </c>
       <c r="E14">
-        <v>19.0645161290323</v>
+        <v>19.064516129032299</v>
       </c>
       <c r="F14">
         <v>30.8</v>
@@ -789,16 +915,12 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>108年11月</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
       </c>
       <c r="C15">
         <v>6400</v>
@@ -807,28 +929,24 @@
         <v>209745.7</v>
       </c>
       <c r="E15">
-        <v>32.772765625</v>
+        <v>32.772765624999998</v>
       </c>
       <c r="F15">
         <v>75.8</v>
       </c>
       <c r="G15">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H15">
         <v>23.7</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>108年12月</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
       </c>
       <c r="C16">
         <v>17870</v>
@@ -837,28 +955,24 @@
         <v>370307.1</v>
       </c>
       <c r="E16">
-        <v>20.7222775601567</v>
+        <v>20.722277560156702</v>
       </c>
       <c r="F16">
         <v>46.7</v>
       </c>
       <c r="G16">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H16">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>109年01月</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
       </c>
       <c r="C17">
         <v>24037</v>
@@ -876,19 +990,15 @@
         <v>5</v>
       </c>
       <c r="H17">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>109年02月</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
       </c>
       <c r="C18">
         <v>7896</v>
@@ -900,7 +1010,7 @@
         <v>11.9540526849038</v>
       </c>
       <c r="F18">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -909,16 +1019,12 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>109年03月</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
       </c>
       <c r="C19">
         <v>3037</v>
@@ -939,16 +1045,12 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>109年10月</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
       </c>
       <c r="C20">
         <v>192</v>
@@ -957,10 +1059,10 @@
         <v>5258.4</v>
       </c>
       <c r="E20">
-        <v>27.3875</v>
+        <v>27.387499999999999</v>
       </c>
       <c r="F20">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="G20">
         <v>20.8</v>
@@ -969,16 +1071,12 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>109年11月</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
       </c>
       <c r="C21">
         <v>11323</v>
@@ -987,28 +1085,24 @@
         <v>247554</v>
       </c>
       <c r="E21">
-        <v>21.8629338514528</v>
+        <v>21.862933851452802</v>
       </c>
       <c r="F21">
         <v>50</v>
       </c>
       <c r="G21">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H21">
         <v>24.6</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>109年12月</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
       </c>
       <c r="C22">
         <v>16465</v>
@@ -1017,28 +1111,24 @@
         <v>326987.8</v>
       </c>
       <c r="E22">
-        <v>19.8595687822654</v>
+        <v>19.859568782265399</v>
       </c>
       <c r="F22">
         <v>37.5</v>
       </c>
       <c r="G22">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H22">
         <v>21.4</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>110年01月</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
       </c>
       <c r="C23">
         <v>18850</v>
@@ -1047,7 +1137,7 @@
         <v>433686.2</v>
       </c>
       <c r="E23">
-        <v>23.007225464191</v>
+        <v>23.007225464190999</v>
       </c>
       <c r="F23">
         <v>42</v>
@@ -1059,16 +1149,12 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>110年02月</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
       </c>
       <c r="C24">
         <v>5262</v>
@@ -1077,7 +1163,7 @@
         <v>112556.7</v>
       </c>
       <c r="E24">
-        <v>21.3904789053592</v>
+        <v>21.390478905359199</v>
       </c>
       <c r="F24">
         <v>46.7</v>
@@ -1086,28 +1172,24 @@
         <v>4.2</v>
       </c>
       <c r="H24">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>110年10月</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
       </c>
       <c r="C25">
         <v>4599</v>
       </c>
       <c r="D25">
-        <v>159823.2</v>
+        <v>159823.20000000001</v>
       </c>
       <c r="E25">
-        <v>34.7517286366601</v>
+        <v>34.751728636660097</v>
       </c>
       <c r="F25">
         <v>55.8</v>
@@ -1119,16 +1201,12 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>110年11月</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
       </c>
       <c r="C26">
         <v>24762</v>
@@ -1137,7 +1215,7 @@
         <v>712884.7</v>
       </c>
       <c r="E26">
-        <v>28.7894636943704</v>
+        <v>28.789463694370401</v>
       </c>
       <c r="F26">
         <v>101.7</v>
@@ -1149,16 +1227,12 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>110年12月</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
       </c>
       <c r="C27">
         <v>10217</v>
@@ -1173,22 +1247,18 @@
         <v>75</v>
       </c>
       <c r="G27">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H27">
         <v>20.2</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>111年01月</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
       </c>
       <c r="C28">
         <v>20840</v>
@@ -1197,7 +1267,7 @@
         <v>423753.9</v>
       </c>
       <c r="E28">
-        <v>20.3336804222649</v>
+        <v>20.333680422264901</v>
       </c>
       <c r="F28">
         <v>83.3</v>
@@ -1209,16 +1279,12 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>111年02月</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
       </c>
       <c r="C29">
         <v>5726</v>
@@ -1227,7 +1293,7 @@
         <v>89554.5</v>
       </c>
       <c r="E29">
-        <v>15.6399755501223</v>
+        <v>15.639975550122299</v>
       </c>
       <c r="F29">
         <v>41.7</v>
@@ -1236,19 +1302,15 @@
         <v>6.3</v>
       </c>
       <c r="H29">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>111年03月</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
       </c>
       <c r="C30">
         <v>2677</v>
@@ -1260,7 +1322,7 @@
         <v>20.4967874486365</v>
       </c>
       <c r="F30">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="G30">
         <v>10.8</v>
@@ -1269,16 +1331,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>111年04月</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
       </c>
       <c r="C31">
         <v>189</v>
@@ -1290,7 +1348,7 @@
         <v>15.9444444444444</v>
       </c>
       <c r="F31">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="G31">
         <v>11.9</v>
@@ -1299,25 +1357,21 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>111年10月</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
       </c>
       <c r="C32">
         <v>6948</v>
       </c>
       <c r="D32">
-        <v>260044.8</v>
+        <v>260044.79999999999</v>
       </c>
       <c r="E32">
-        <v>37.4272884283247</v>
+        <v>37.427288428324701</v>
       </c>
       <c r="F32">
         <v>58.3</v>
@@ -1329,16 +1383,12 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>111年11月</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>高雄市場</t>
-        </is>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
       </c>
       <c r="C33">
         <v>20835</v>
@@ -1353,13 +1403,14 @@
         <v>80</v>
       </c>
       <c r="G33">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H33">
         <v>25.6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/merge/merged_data.xlsx
+++ b/merge/merged_data.xlsx
@@ -1,159 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lintzujeng/Documents/GitHub/R_Project/merge/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A07611-DE7C-9D44-AA28-5FA9DD482FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="700" windowWidth="23760" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>市場</t>
-  </si>
-  <si>
-    <t>交易量(公斤)</t>
-  </si>
-  <si>
-    <t>交易金額(元)</t>
-  </si>
-  <si>
-    <t>平均價(元/公斤)</t>
-  </si>
-  <si>
-    <t>最高價(元/公斤)</t>
-  </si>
-  <si>
-    <t>最低價(元/公斤)</t>
-  </si>
-  <si>
-    <t>氣溫</t>
-  </si>
-  <si>
-    <t>107年01月</t>
-  </si>
-  <si>
-    <t>高雄市場</t>
-  </si>
-  <si>
-    <t>107年02月</t>
-  </si>
-  <si>
-    <t>107年03月</t>
-  </si>
-  <si>
-    <t>107年04月</t>
-  </si>
-  <si>
-    <t>107年05月</t>
-  </si>
-  <si>
-    <t>107年06月</t>
-  </si>
-  <si>
-    <t>107年10月</t>
-  </si>
-  <si>
-    <t>107年11月</t>
-  </si>
-  <si>
-    <t>107年12月</t>
-  </si>
-  <si>
-    <t>108年01月</t>
-  </si>
-  <si>
-    <t>108年02月</t>
-  </si>
-  <si>
-    <t>108年03月</t>
-  </si>
-  <si>
-    <t>108年04月</t>
-  </si>
-  <si>
-    <t>108年11月</t>
-  </si>
-  <si>
-    <t>108年12月</t>
-  </si>
-  <si>
-    <t>109年01月</t>
-  </si>
-  <si>
-    <t>109年02月</t>
-  </si>
-  <si>
-    <t>109年03月</t>
-  </si>
-  <si>
-    <t>109年10月</t>
-  </si>
-  <si>
-    <t>109年11月</t>
-  </si>
-  <si>
-    <t>109年12月</t>
-  </si>
-  <si>
-    <t>110年01月</t>
-  </si>
-  <si>
-    <t>110年02月</t>
-  </si>
-  <si>
-    <t>110年10月</t>
-  </si>
-  <si>
-    <t>110年11月</t>
-  </si>
-  <si>
-    <t>110年12月</t>
-  </si>
-  <si>
-    <t>111年01月</t>
-  </si>
-  <si>
-    <t>111年02月</t>
-  </si>
-  <si>
-    <t>111年03月</t>
-  </si>
-  <si>
-    <t>111年04月</t>
-  </si>
-  <si>
-    <t>111年10月</t>
-  </si>
-  <si>
-    <t>111年11月</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -161,15 +27,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -200,23 +59,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -258,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,54 +350,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>市場</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>交易量(公斤)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>交易金額(元)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>平均價(元/公斤)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>最高價(元/公斤)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>最低價(元/公斤)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>氣溫</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>107年01月</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C2">
         <v>23938</v>
@@ -591,7 +417,7 @@
         <v>405000.2</v>
       </c>
       <c r="E2">
-        <v>16.918715013785601</v>
+        <v>16.9187150137856</v>
       </c>
       <c r="F2">
         <v>166.7</v>
@@ -600,15 +426,19 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>107年02月</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C3">
         <v>20021</v>
@@ -626,15 +456,19 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>19.100000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>107年03月</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C4">
         <v>3928</v>
@@ -643,7 +477,7 @@
         <v>56803.1</v>
       </c>
       <c r="E4">
-        <v>14.461074338085499</v>
+        <v>14.4610743380855</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -655,12 +489,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>107年04月</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C5">
         <v>4381</v>
@@ -669,7 +507,7 @@
         <v>64628.1</v>
       </c>
       <c r="E5">
-        <v>14.751905957543901</v>
+        <v>14.7519059575439</v>
       </c>
       <c r="F5">
         <v>32</v>
@@ -681,21 +519,25 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>107年05月</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C6">
         <v>2350</v>
       </c>
       <c r="D6">
-        <v>26395.200000000001</v>
+        <v>26395.2</v>
       </c>
       <c r="E6">
-        <v>11.231999999999999</v>
+        <v>11.232</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -707,12 +549,16 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>107年06月</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C7">
         <v>320</v>
@@ -733,12 +579,16 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>107年10月</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C8">
         <v>174</v>
@@ -759,12 +609,16 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>107年11月</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C9">
         <v>2236</v>
@@ -773,24 +627,28 @@
         <v>38071.1</v>
       </c>
       <c r="E9">
-        <v>17.026431127012501</v>
+        <v>17.0264311270125</v>
       </c>
       <c r="F9">
         <v>28.7</v>
       </c>
       <c r="G9">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H9">
         <v>24.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>107年12月</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C10">
         <v>9511</v>
@@ -799,10 +657,10 @@
         <v>183999.3</v>
       </c>
       <c r="E10">
-        <v>19.345946798443901</v>
+        <v>19.3459467984439</v>
       </c>
       <c r="F10">
-        <v>133.30000000000001</v>
+        <v>133.3</v>
       </c>
       <c r="G10">
         <v>5.4</v>
@@ -811,12 +669,16 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>108年01月</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C11">
         <v>29855</v>
@@ -825,7 +687,7 @@
         <v>557192.5</v>
       </c>
       <c r="E11">
-        <v>18.663289231284502</v>
+        <v>18.6632892312845</v>
       </c>
       <c r="F11">
         <v>160</v>
@@ -837,21 +699,25 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>108年02月</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C12">
         <v>10550</v>
       </c>
       <c r="D12">
-        <v>160629.70000000001</v>
+        <v>160629.7</v>
       </c>
       <c r="E12">
-        <v>15.225563981042701</v>
+        <v>15.2255639810427</v>
       </c>
       <c r="F12">
         <v>41.7</v>
@@ -863,12 +729,16 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>108年03月</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C13">
         <v>6781</v>
@@ -877,10 +747,10 @@
         <v>114507.9</v>
       </c>
       <c r="E13">
-        <v>16.886580150420301</v>
+        <v>16.8865801504203</v>
       </c>
       <c r="F13">
-        <v>37.700000000000003</v>
+        <v>37.7</v>
       </c>
       <c r="G13">
         <v>5.8</v>
@@ -889,12 +759,16 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>108年04月</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C14">
         <v>403</v>
@@ -903,7 +777,7 @@
         <v>7683</v>
       </c>
       <c r="E14">
-        <v>19.064516129032299</v>
+        <v>19.0645161290323</v>
       </c>
       <c r="F14">
         <v>30.8</v>
@@ -915,12 +789,16 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>108年11月</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C15">
         <v>6400</v>
@@ -929,24 +807,28 @@
         <v>209745.7</v>
       </c>
       <c r="E15">
-        <v>32.772765624999998</v>
+        <v>32.772765625</v>
       </c>
       <c r="F15">
         <v>75.8</v>
       </c>
       <c r="G15">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H15">
         <v>23.7</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>108年12月</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C16">
         <v>17870</v>
@@ -955,24 +837,28 @@
         <v>370307.1</v>
       </c>
       <c r="E16">
-        <v>20.722277560156702</v>
+        <v>20.7222775601567</v>
       </c>
       <c r="F16">
         <v>46.7</v>
       </c>
       <c r="G16">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H16">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>109年01月</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C17">
         <v>24037</v>
@@ -990,15 +876,19 @@
         <v>5</v>
       </c>
       <c r="H17">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>109年02月</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C18">
         <v>7896</v>
@@ -1010,7 +900,7 @@
         <v>11.9540526849038</v>
       </c>
       <c r="F18">
-        <v>38.299999999999997</v>
+        <v>38.3</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -1019,12 +909,16 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>109年03月</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C19">
         <v>3037</v>
@@ -1045,12 +939,16 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>109年10月</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C20">
         <v>192</v>
@@ -1059,10 +957,10 @@
         <v>5258.4</v>
       </c>
       <c r="E20">
-        <v>27.387499999999999</v>
+        <v>27.3875</v>
       </c>
       <c r="F20">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="G20">
         <v>20.8</v>
@@ -1071,12 +969,16 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>109年11月</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C21">
         <v>11323</v>
@@ -1085,24 +987,28 @@
         <v>247554</v>
       </c>
       <c r="E21">
-        <v>21.862933851452802</v>
+        <v>21.8629338514528</v>
       </c>
       <c r="F21">
         <v>50</v>
       </c>
       <c r="G21">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H21">
         <v>24.6</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>109年12月</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C22">
         <v>16465</v>
@@ -1111,24 +1017,28 @@
         <v>326987.8</v>
       </c>
       <c r="E22">
-        <v>19.859568782265399</v>
+        <v>19.8595687822654</v>
       </c>
       <c r="F22">
         <v>37.5</v>
       </c>
       <c r="G22">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H22">
         <v>21.4</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>110年01月</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C23">
         <v>18850</v>
@@ -1137,7 +1047,7 @@
         <v>433686.2</v>
       </c>
       <c r="E23">
-        <v>23.007225464190999</v>
+        <v>23.007225464191</v>
       </c>
       <c r="F23">
         <v>42</v>
@@ -1149,12 +1059,16 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>110年02月</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C24">
         <v>5262</v>
@@ -1163,7 +1077,7 @@
         <v>112556.7</v>
       </c>
       <c r="E24">
-        <v>21.390478905359199</v>
+        <v>21.3904789053592</v>
       </c>
       <c r="F24">
         <v>46.7</v>
@@ -1172,24 +1086,28 @@
         <v>4.2</v>
       </c>
       <c r="H24">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>110年10月</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C25">
         <v>4599</v>
       </c>
       <c r="D25">
-        <v>159823.20000000001</v>
+        <v>159823.2</v>
       </c>
       <c r="E25">
-        <v>34.751728636660097</v>
+        <v>34.7517286366601</v>
       </c>
       <c r="F25">
         <v>55.8</v>
@@ -1201,12 +1119,16 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>110年11月</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C26">
         <v>24762</v>
@@ -1215,7 +1137,7 @@
         <v>712884.7</v>
       </c>
       <c r="E26">
-        <v>28.789463694370401</v>
+        <v>28.7894636943704</v>
       </c>
       <c r="F26">
         <v>101.7</v>
@@ -1227,12 +1149,16 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>110年12月</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C27">
         <v>10217</v>
@@ -1247,18 +1173,22 @@
         <v>75</v>
       </c>
       <c r="G27">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H27">
         <v>20.2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>111年01月</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C28">
         <v>20840</v>
@@ -1267,7 +1197,7 @@
         <v>423753.9</v>
       </c>
       <c r="E28">
-        <v>20.333680422264901</v>
+        <v>20.3336804222649</v>
       </c>
       <c r="F28">
         <v>83.3</v>
@@ -1279,12 +1209,16 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>111年02月</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C29">
         <v>5726</v>
@@ -1293,7 +1227,7 @@
         <v>89554.5</v>
       </c>
       <c r="E29">
-        <v>15.639975550122299</v>
+        <v>15.6399755501223</v>
       </c>
       <c r="F29">
         <v>41.7</v>
@@ -1302,15 +1236,19 @@
         <v>6.3</v>
       </c>
       <c r="H29">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>111年03月</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C30">
         <v>2677</v>
@@ -1322,7 +1260,7 @@
         <v>20.4967874486365</v>
       </c>
       <c r="F30">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="G30">
         <v>10.8</v>
@@ -1331,12 +1269,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>111年04月</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C31">
         <v>189</v>
@@ -1348,7 +1290,7 @@
         <v>15.9444444444444</v>
       </c>
       <c r="F31">
-        <v>17.100000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="G31">
         <v>11.9</v>
@@ -1357,21 +1299,25 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>111年10月</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C32">
         <v>6948</v>
       </c>
       <c r="D32">
-        <v>260044.79999999999</v>
+        <v>260044.8</v>
       </c>
       <c r="E32">
-        <v>37.427288428324701</v>
+        <v>37.4272884283247</v>
       </c>
       <c r="F32">
         <v>58.3</v>
@@ -1383,12 +1329,16 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>111年11月</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>高雄市場</t>
+        </is>
       </c>
       <c r="C33">
         <v>20835</v>
@@ -1403,14 +1353,13 @@
         <v>80</v>
       </c>
       <c r="G33">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H33">
         <v>25.6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>